--- a/JPM.xlsx
+++ b/JPM.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5506A8F7-E73B-4A44-BB22-FF3763753E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E889ADEE-5F75-FB49-A9E4-78F11DBACA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="740" windowWidth="13620" windowHeight="17260" activeTab="1" xr2:uid="{F82DA416-AA99-4B4A-8821-016F27042EC9}"/>
+    <workbookView xWindow="640" yWindow="740" windowWidth="13620" windowHeight="17260" xr2:uid="{F82DA416-AA99-4B4A-8821-016F27042EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -204,7 +204,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -300,7 +300,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBB05FF-B1AA-C74A-822F-5E498AFA703E}">
   <dimension ref="K2:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -729,8 +729,7 @@
         <v>8</v>
       </c>
       <c r="L11" s="4">
-        <f>L20</f>
-        <v>9.6600000000000005E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="12" spans="11:13">
@@ -739,7 +738,7 @@
       </c>
       <c r="L12" s="3">
         <f>NPV(L11,Model!Q30:FV30)+L5-L6</f>
-        <v>600843.42002683051</v>
+        <v>743316.0155947716</v>
       </c>
     </row>
     <row r="13" spans="11:13">
@@ -748,13 +747,13 @@
       </c>
       <c r="L13" s="5">
         <f>L12/L3</f>
-        <v>213.44348846423819</v>
+        <v>264.05542294663292</v>
       </c>
     </row>
     <row r="15" spans="11:13">
       <c r="L15" s="6">
         <f>L13/L2-1</f>
-        <v>-0.12163173471506916</v>
+        <v>8.664783105610252E-2</v>
       </c>
     </row>
     <row r="17" spans="11:12">
@@ -799,7 +798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27E55BD-0FE3-FC44-B222-AE74552370AE}">
   <dimension ref="A1:FV41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="O8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="C3" sqref="C3"/>
@@ -929,7 +928,7 @@
         <v>6519</v>
       </c>
       <c r="P5" s="9">
-        <f>SUM(G5:J5)</f>
+        <f t="shared" ref="P5:P13" si="0">SUM(G5:J5)</f>
         <v>8205.75</v>
       </c>
       <c r="Q5" s="9"/>
@@ -950,7 +949,7 @@
         <v>6210</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" ref="F6:F25" si="0">O6-SUM(C6:E6)</f>
+        <f t="shared" ref="F6:F25" si="1">O6-SUM(C6:E6)</f>
         <v>3725</v>
       </c>
       <c r="G6" s="9">
@@ -963,7 +962,7 @@
         <v>5988</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" ref="J6:J25" si="1">F6</f>
+        <f t="shared" ref="J6:J25" si="2">F6</f>
         <v>3725</v>
       </c>
       <c r="K6" s="9"/>
@@ -978,7 +977,7 @@
         <v>24460</v>
       </c>
       <c r="P6" s="9">
-        <f>SUM(G6:J6)</f>
+        <f t="shared" si="0"/>
         <v>23317</v>
       </c>
       <c r="Q6" s="9"/>
@@ -999,7 +998,7 @@
         <v>2039</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1926</v>
       </c>
       <c r="G7" s="9">
@@ -1012,7 +1011,7 @@
         <v>1924</v>
       </c>
       <c r="J7" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1926</v>
       </c>
       <c r="K7" s="9"/>
@@ -1027,7 +1026,7 @@
         <v>7413</v>
       </c>
       <c r="P7" s="9">
-        <f>SUM(G7:J7)</f>
+        <f t="shared" si="0"/>
         <v>7580</v>
       </c>
       <c r="Q7" s="9"/>
@@ -1048,7 +1047,7 @@
         <v>3904</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4077</v>
       </c>
       <c r="G8" s="9">
@@ -1061,7 +1060,7 @@
         <v>4479</v>
       </c>
       <c r="J8" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4077</v>
       </c>
       <c r="K8" s="9"/>
@@ -1076,7 +1075,7 @@
         <v>15220</v>
       </c>
       <c r="P8" s="9">
-        <f>SUM(G8:J8)</f>
+        <f t="shared" si="0"/>
         <v>17004</v>
       </c>
       <c r="Q8" s="9"/>
@@ -1097,7 +1096,7 @@
         <v>1705</v>
       </c>
       <c r="F9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1697</v>
       </c>
       <c r="G9" s="9">
@@ -1110,7 +1109,7 @@
         <v>1936</v>
       </c>
       <c r="J9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1697</v>
       </c>
       <c r="K9" s="9"/>
@@ -1125,7 +1124,7 @@
         <v>6836</v>
       </c>
       <c r="P9" s="9">
-        <f>SUM(G9:J9)</f>
+        <f t="shared" si="0"/>
         <v>7362</v>
       </c>
       <c r="Q9" s="9"/>
@@ -1146,7 +1145,7 @@
         <v>-669</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-743</v>
       </c>
       <c r="G10" s="9">
@@ -1159,7 +1158,7 @@
         <v>-16</v>
       </c>
       <c r="J10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-743</v>
       </c>
       <c r="K10" s="9"/>
@@ -1174,7 +1173,7 @@
         <v>-3180</v>
       </c>
       <c r="P10" s="9">
-        <f>SUM(G10:J10)</f>
+        <f t="shared" si="0"/>
         <v>-1672</v>
       </c>
       <c r="Q10" s="9"/>
@@ -1195,7 +1194,7 @@
         <v>414</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>263</v>
       </c>
       <c r="G11" s="9">
@@ -1208,7 +1207,7 @@
         <v>402</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>263</v>
       </c>
       <c r="K11" s="9"/>
@@ -1223,7 +1222,7 @@
         <v>1176</v>
       </c>
       <c r="P11" s="9">
-        <f>SUM(G11:J11)</f>
+        <f t="shared" si="0"/>
         <v>1288</v>
       </c>
       <c r="Q11" s="9"/>
@@ -1244,7 +1243,7 @@
         <v>1209</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1247</v>
       </c>
       <c r="G12" s="9">
@@ -1257,7 +1256,7 @@
         <v>1345</v>
       </c>
       <c r="J12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1247</v>
       </c>
       <c r="K12" s="9"/>
@@ -1272,7 +1271,7 @@
         <v>4784</v>
       </c>
       <c r="P12" s="9">
-        <f>SUM(G12:J12)</f>
+        <f t="shared" si="0"/>
         <v>5142</v>
       </c>
       <c r="Q12" s="9"/>
@@ -1293,7 +1292,7 @@
         <v>614</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>696</v>
       </c>
       <c r="G13" s="9">
@@ -1306,7 +1305,7 @@
         <v>960</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>696</v>
       </c>
       <c r="K13" s="9"/>
@@ -1321,7 +1320,7 @@
         <v>5609</v>
       </c>
       <c r="P13" s="9">
-        <f>SUM(G13:J13)</f>
+        <f t="shared" si="0"/>
         <v>11933</v>
       </c>
       <c r="Q13" s="9"/>
@@ -1333,11 +1332,11 @@
         <v>28</v>
       </c>
       <c r="C14" s="11">
-        <f t="shared" ref="C14:D14" si="2">SUM(C5:C13)</f>
+        <f t="shared" ref="C14:D14" si="3">SUM(C5:C13)</f>
         <v>17638</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19528</v>
       </c>
       <c r="E14" s="11">
@@ -1345,19 +1344,19 @@
         <v>17148</v>
       </c>
       <c r="F14" s="11">
-        <f t="shared" ref="F14:I14" si="3">SUM(F5:F13)</f>
+        <f t="shared" ref="F14:I14" si="4">SUM(F5:F13)</f>
         <v>14523</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18852</v>
       </c>
       <c r="H14" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27454</v>
       </c>
       <c r="I14" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19249</v>
       </c>
       <c r="J14" s="11">
@@ -1400,7 +1399,7 @@
         <v>44556</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47384</v>
       </c>
       <c r="G15" s="9">
@@ -1413,7 +1412,7 @@
         <v>50416</v>
       </c>
       <c r="J15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47384</v>
       </c>
       <c r="K15" s="9"/>
@@ -1449,7 +1448,7 @@
         <v>21830</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23333</v>
       </c>
       <c r="G16" s="9">
@@ -1462,7 +1461,7 @@
         <v>27011</v>
       </c>
       <c r="J16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23333</v>
       </c>
       <c r="K16" s="9"/>
@@ -1493,31 +1492,31 @@
         <v>20711</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" ref="D17:J17" si="4">D15-D16</f>
+        <f t="shared" ref="D17:J17" si="5">D15-D16</f>
         <v>21779</v>
       </c>
       <c r="E17" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22726</v>
       </c>
       <c r="F17" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24051</v>
       </c>
       <c r="G17" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23082</v>
       </c>
       <c r="H17" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22746</v>
       </c>
       <c r="I17" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23405</v>
       </c>
       <c r="J17" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24051</v>
       </c>
       <c r="K17" s="11"/>
@@ -1527,15 +1526,15 @@
         <v>52311</v>
       </c>
       <c r="N17" s="11">
-        <f t="shared" ref="N17:P17" si="5">N15-N16</f>
+        <f t="shared" ref="N17:P17" si="6">N15-N16</f>
         <v>66710</v>
       </c>
       <c r="O17" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>89267</v>
       </c>
       <c r="P17" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>93284</v>
       </c>
       <c r="Q17" s="11"/>
@@ -1547,11 +1546,11 @@
         <v>31</v>
       </c>
       <c r="C18" s="13">
-        <f t="shared" ref="C18:D18" si="6">SUM(C14:C15)-C16</f>
+        <f t="shared" ref="C18:D18" si="7">SUM(C14:C15)-C16</f>
         <v>38349</v>
       </c>
       <c r="D18" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41307</v>
       </c>
       <c r="E18" s="13">
@@ -1559,41 +1558,41 @@
         <v>39874</v>
       </c>
       <c r="F18" s="13">
-        <f t="shared" ref="F18:J18" si="7">SUM(F14:F15)-F16</f>
+        <f t="shared" ref="F18:J18" si="8">SUM(F14:F15)-F16</f>
         <v>38574</v>
       </c>
       <c r="G18" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41934</v>
       </c>
       <c r="H18" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50200</v>
       </c>
       <c r="I18" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42654</v>
       </c>
       <c r="J18" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38655.75</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13">
-        <f t="shared" ref="M18:P18" si="8">SUM(M14:M15)-M16</f>
+        <f t="shared" ref="M18:P18" si="9">SUM(M14:M15)-M16</f>
         <v>121649</v>
       </c>
       <c r="N18" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>128695</v>
       </c>
       <c r="O18" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>158104</v>
       </c>
       <c r="P18" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>173443.75</v>
       </c>
       <c r="Q18" s="13">
@@ -1605,31 +1604,31 @@
         <v>175178.1875</v>
       </c>
       <c r="S18" s="13">
-        <f t="shared" ref="S18:Y18" si="9">R18*(1+S34)</f>
+        <f t="shared" ref="S18:Y18" si="10">R18*(1+S34)</f>
         <v>176929.96937500002</v>
       </c>
       <c r="T18" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>178699.26906875003</v>
       </c>
       <c r="U18" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>180486.26175943753</v>
       </c>
       <c r="V18" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>182291.1243770319</v>
       </c>
       <c r="W18" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>184114.03562080223</v>
       </c>
       <c r="X18" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>185955.17597701025</v>
       </c>
       <c r="Y18" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>187814.72773678036</v>
       </c>
     </row>
@@ -1647,7 +1646,7 @@
         <v>1384</v>
       </c>
       <c r="F19" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2762</v>
       </c>
       <c r="G19" s="9">
@@ -1660,7 +1659,7 @@
         <v>3111</v>
       </c>
       <c r="J19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2762</v>
       </c>
       <c r="K19" s="9"/>
@@ -1675,7 +1674,7 @@
         <v>9320</v>
       </c>
       <c r="P19" s="9">
-        <f>SUM(G19:J19)</f>
+        <f t="shared" ref="P19:P25" si="11">SUM(G19:J19)</f>
         <v>10809</v>
       </c>
       <c r="Q19" s="9"/>
@@ -1696,7 +1695,7 @@
         <v>11726</v>
       </c>
       <c r="F20" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11847</v>
       </c>
       <c r="G20" s="9">
@@ -1709,7 +1708,7 @@
         <v>12817</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11847</v>
       </c>
       <c r="K20" s="9"/>
@@ -1724,7 +1723,7 @@
         <v>46465</v>
       </c>
       <c r="P20" s="9">
-        <f>SUM(G20:J20)</f>
+        <f t="shared" si="11"/>
         <v>50735</v>
       </c>
       <c r="Q20" s="9"/>
@@ -1745,7 +1744,7 @@
         <v>1197</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1208</v>
       </c>
       <c r="G21" s="9">
@@ -1758,7 +1757,7 @@
         <v>1258</v>
       </c>
       <c r="J21" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1208</v>
       </c>
       <c r="K21" s="9"/>
@@ -1773,7 +1772,7 @@
         <v>4590</v>
       </c>
       <c r="P21" s="9">
-        <f>SUM(G21:J21)</f>
+        <f t="shared" si="11"/>
         <v>4925</v>
       </c>
       <c r="Q21" s="9"/>
@@ -1794,7 +1793,7 @@
         <v>2386</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2409</v>
       </c>
       <c r="G22" s="9">
@@ -1807,7 +1806,7 @@
         <v>2447</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2409</v>
       </c>
       <c r="K22" s="9"/>
@@ -1822,7 +1821,7 @@
         <v>9246</v>
       </c>
       <c r="P22" s="9">
-        <f>SUM(G22:J22)</f>
+        <f t="shared" si="11"/>
         <v>9724</v>
       </c>
       <c r="Q22" s="9"/>
@@ -1843,7 +1842,7 @@
         <v>2620</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2606</v>
       </c>
       <c r="G23" s="9">
@@ -1856,7 +1855,7 @@
         <v>2780</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2606</v>
       </c>
       <c r="K23" s="9"/>
@@ -1871,7 +1870,7 @@
         <v>10235</v>
       </c>
       <c r="P23" s="9">
-        <f>SUM(G23:J23)</f>
+        <f t="shared" si="11"/>
         <v>10656</v>
       </c>
       <c r="Q23" s="9"/>
@@ -1892,7 +1891,7 @@
         <v>1126</v>
       </c>
       <c r="F24" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1298</v>
       </c>
       <c r="G24" s="9">
@@ -1905,7 +1904,7 @@
         <v>1258</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1298</v>
       </c>
       <c r="K24" s="9"/>
@@ -1920,7 +1919,7 @@
         <v>4591</v>
       </c>
       <c r="P24" s="9">
-        <f>SUM(G24:J24)</f>
+        <f t="shared" si="11"/>
         <v>4937</v>
       </c>
       <c r="Q24" s="9"/>
@@ -1941,7 +1940,7 @@
         <v>2702</v>
       </c>
       <c r="F25" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5118</v>
       </c>
       <c r="G25" s="9">
@@ -1954,7 +1953,7 @@
         <v>2005</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5118</v>
       </c>
       <c r="K25" s="9"/>
@@ -1969,7 +1968,7 @@
         <v>12045</v>
       </c>
       <c r="P25" s="9">
-        <f>SUM(G25:J25)</f>
+        <f t="shared" si="11"/>
         <v>12544</v>
       </c>
       <c r="Q25" s="9"/>
@@ -1981,11 +1980,11 @@
         <v>39</v>
       </c>
       <c r="C26" s="11">
-        <f t="shared" ref="C26:D26" si="10">SUM(C20:C25)</f>
+        <f t="shared" ref="C26:D26" si="12">SUM(C20:C25)</f>
         <v>20107</v>
       </c>
       <c r="D26" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20822</v>
       </c>
       <c r="E26" s="11">
@@ -1993,41 +1992,41 @@
         <v>21757</v>
       </c>
       <c r="F26" s="11">
-        <f t="shared" ref="F26:J26" si="11">SUM(F20:F25)</f>
+        <f t="shared" ref="F26:J26" si="13">SUM(F20:F25)</f>
         <v>24486</v>
       </c>
       <c r="G26" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>22757</v>
       </c>
       <c r="H26" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>23713</v>
       </c>
       <c r="I26" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>22565</v>
       </c>
       <c r="J26" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>24486</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11">
-        <f t="shared" ref="M26:P26" si="12">SUM(M20:M25)</f>
+        <f t="shared" ref="M26:P26" si="14">SUM(M20:M25)</f>
         <v>71343</v>
       </c>
       <c r="N26" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>76140</v>
       </c>
       <c r="O26" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>87172</v>
       </c>
       <c r="P26" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>93521</v>
       </c>
       <c r="Q26" s="11"/>
@@ -2039,11 +2038,11 @@
         <v>40</v>
       </c>
       <c r="C27" s="11">
-        <f t="shared" ref="C27:D27" si="13">C18-C19-C26</f>
+        <f t="shared" ref="C27:D27" si="15">C18-C19-C26</f>
         <v>15967</v>
       </c>
       <c r="D27" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>17586</v>
       </c>
       <c r="E27" s="11">
@@ -2051,41 +2050,41 @@
         <v>16733</v>
       </c>
       <c r="F27" s="11">
-        <f t="shared" ref="F27:J27" si="14">F18-F19-F26</f>
+        <f t="shared" ref="F27:J27" si="16">F18-F19-F26</f>
         <v>11326</v>
       </c>
       <c r="G27" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>17293</v>
       </c>
       <c r="H27" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>23435</v>
       </c>
       <c r="I27" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>16978</v>
       </c>
       <c r="J27" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11407.75</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11">
-        <f t="shared" ref="M27:P27" si="15">M18-M19-M26</f>
+        <f t="shared" ref="M27:P27" si="17">M18-M19-M26</f>
         <v>59562</v>
       </c>
       <c r="N27" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>46166</v>
       </c>
       <c r="O27" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>61612</v>
       </c>
       <c r="P27" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>69113.75</v>
       </c>
       <c r="Q27" s="11"/>
@@ -2106,7 +2105,7 @@
         <v>3582</v>
       </c>
       <c r="F28" s="9">
-        <f t="shared" ref="F28" si="16">O28-SUM(C28:E28)</f>
+        <f t="shared" ref="F28" si="18">O28-SUM(C28:E28)</f>
         <v>2019</v>
       </c>
       <c r="G28" s="9">
@@ -2119,7 +2118,7 @@
         <v>4080</v>
       </c>
       <c r="J28" s="9">
-        <f t="shared" ref="J28" si="17">F28</f>
+        <f t="shared" ref="J28" si="19">F28</f>
         <v>2019</v>
       </c>
       <c r="K28" s="9"/>
@@ -2146,11 +2145,11 @@
         <v>42</v>
       </c>
       <c r="C29" s="11">
-        <f t="shared" ref="C29:D29" si="18">C27-C28</f>
+        <f t="shared" ref="C29:D29" si="20">C27-C28</f>
         <v>12622</v>
       </c>
       <c r="D29" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>14472</v>
       </c>
       <c r="E29" s="11">
@@ -2158,41 +2157,41 @@
         <v>13151</v>
       </c>
       <c r="F29" s="11">
-        <f t="shared" ref="F29:J29" si="19">F27-F28</f>
+        <f t="shared" ref="F29:J29" si="21">F27-F28</f>
         <v>9307</v>
       </c>
       <c r="G29" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>13446</v>
       </c>
       <c r="H29" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>18149</v>
       </c>
       <c r="I29" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>12898</v>
       </c>
       <c r="J29" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9388.75</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11">
-        <f t="shared" ref="M29:P29" si="20">M27-M28</f>
+        <f t="shared" ref="M29:P29" si="22">M27-M28</f>
         <v>48334</v>
       </c>
       <c r="N29" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>37676</v>
       </c>
       <c r="O29" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>49552</v>
       </c>
       <c r="P29" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>53881.75</v>
       </c>
       <c r="Q29" s="11"/>
@@ -2213,7 +2212,7 @@
         <v>12685</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" ref="F30" si="21">O30-SUM(C30:E30)</f>
+        <f t="shared" ref="F30" si="23">O30-SUM(C30:E30)</f>
         <v>8871</v>
       </c>
       <c r="G30" s="15">
@@ -2249,35 +2248,35 @@
         <v>52033.125</v>
       </c>
       <c r="R30" s="15">
-        <f t="shared" ref="R30:Y30" si="22">R18*R36</f>
+        <f t="shared" ref="R30:Y30" si="24">R18*R36</f>
         <v>52553.456249999996</v>
       </c>
       <c r="S30" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>53078.9908125</v>
       </c>
       <c r="T30" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>53609.780720625007</v>
       </c>
       <c r="U30" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>54145.878527831257</v>
       </c>
       <c r="V30" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>54687.337313109565</v>
       </c>
       <c r="W30" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>55234.210686240665</v>
       </c>
       <c r="X30" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>55786.552793103074</v>
       </c>
       <c r="Y30" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>56344.418321034107</v>
       </c>
       <c r="Z30" s="15">
@@ -2898,27 +2897,27 @@
         <v>43</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" ref="C31:H31" si="23">C30/C32</f>
+        <f t="shared" ref="C31:H31" si="25">C30/C32</f>
         <v>4.1016584250008412</v>
       </c>
       <c r="D31" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.752230098700946</v>
       </c>
       <c r="E31" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.3262508099996593</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.0141687336481944</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.4431474869541336</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.1204186673114789</v>
       </c>
       <c r="I31" s="8">
@@ -2932,11 +2931,11 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="8">
-        <f t="shared" ref="M31:N31" si="24">M30/M32</f>
+        <f t="shared" ref="M31:N31" si="26">M30/M32</f>
         <v>15.364765743738849</v>
       </c>
       <c r="N31" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>12.084848484848484</v>
       </c>
       <c r="O31" s="8">
@@ -3018,15 +3017,15 @@
         <v>9.3483532817022708E-2</v>
       </c>
       <c r="H34" s="16">
-        <f t="shared" ref="H34:J34" si="25">H18/D18-1</f>
+        <f t="shared" ref="H34:J34" si="27">H18/D18-1</f>
         <v>0.21529038661728039</v>
       </c>
       <c r="I34" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>6.9719616792897732E-2</v>
       </c>
       <c r="J34" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.1193031575672538E-3</v>
       </c>
       <c r="N34" s="16">
@@ -3034,11 +3033,11 @@
         <v>5.7920739175825631E-2</v>
       </c>
       <c r="O34" s="16">
-        <f t="shared" ref="O34:P34" si="26">O18/N18-1</f>
+        <f t="shared" ref="O34:P34" si="28">O18/N18-1</f>
         <v>0.22851703640390064</v>
       </c>
       <c r="P34" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9.7023161969336691E-2</v>
       </c>
       <c r="Q34" s="16">
@@ -3079,55 +3078,55 @@
         <v>0.31794831677488333</v>
       </c>
       <c r="D36" s="16">
-        <f t="shared" ref="D36:P36" si="27">D30/D18</f>
+        <f t="shared" ref="D36:P36" si="29">D30/D18</f>
         <v>0.33919190451981507</v>
       </c>
       <c r="E36" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.31812710036615338</v>
       </c>
       <c r="F36" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.229973557318401</v>
       </c>
       <c r="G36" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.30862784375447133</v>
       </c>
       <c r="H36" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.35294820717131475</v>
       </c>
       <c r="I36" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.29392319594879729</v>
       </c>
       <c r="J36" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.23461908214741137</v>
       </c>
       <c r="K36" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L36" s="16" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M36" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.3822719463374134</v>
       </c>
       <c r="N36" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.27889195384436072</v>
       </c>
       <c r="O36" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.30207964377877855</v>
       </c>
       <c r="P36" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.3013448255398064</v>
       </c>
       <c r="Q36" s="17">
@@ -3138,31 +3137,31 @@
         <v>0.3</v>
       </c>
       <c r="S36" s="17">
-        <f t="shared" ref="S36:Y36" si="28">R36</f>
+        <f t="shared" ref="S36:Y36" si="30">R36</f>
         <v>0.3</v>
       </c>
       <c r="T36" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.3</v>
       </c>
       <c r="U36" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.3</v>
       </c>
       <c r="V36" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.3</v>
       </c>
       <c r="W36" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.3</v>
       </c>
       <c r="X36" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.3</v>
       </c>
       <c r="Y36" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.3</v>
       </c>
     </row>
@@ -3175,81 +3174,81 @@
         <v>0.5400662338000991</v>
       </c>
       <c r="D37" s="16">
-        <f t="shared" ref="D37:J37" si="29">D17/D18</f>
+        <f t="shared" ref="D37:J37" si="31">D17/D18</f>
         <v>0.52724719781150897</v>
       </c>
       <c r="E37" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.56994532778251494</v>
       </c>
       <c r="F37" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.6235028775859387</v>
       </c>
       <c r="G37" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.55043640005723282</v>
       </c>
       <c r="H37" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.45310756972111554</v>
       </c>
       <c r="I37" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.54871758803394755</v>
       </c>
       <c r="J37" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.62218428047573782</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" ref="M37:P37" si="30">M17/M18</f>
+        <f t="shared" ref="M37:P37" si="32">M17/M18</f>
         <v>0.43001586531742964</v>
       </c>
       <c r="N37" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.51835735654065818</v>
       </c>
       <c r="O37" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.56460937104690578</v>
       </c>
       <c r="P37" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.53783431227703504</v>
       </c>
     </row>
     <row r="41" spans="2:25">
       <c r="C41" s="16">
-        <f>C30/C29</f>
+        <f t="shared" ref="C41:J41" si="33">C30/C29</f>
         <v>0.96601172555854853</v>
       </c>
       <c r="D41" s="16">
-        <f>D30/D29</f>
+        <f t="shared" si="33"/>
         <v>0.96814538419016027</v>
       </c>
       <c r="E41" s="16">
-        <f>E30/E29</f>
+        <f t="shared" si="33"/>
         <v>0.96456543228651814</v>
       </c>
       <c r="F41" s="16">
-        <f>F30/F29</f>
+        <f t="shared" si="33"/>
         <v>0.9531535403459761</v>
       </c>
       <c r="G41" s="16">
-        <f>G30/G29</f>
+        <f t="shared" si="33"/>
         <v>0.96251673360107093</v>
       </c>
       <c r="H41" s="16">
-        <f>H30/H29</f>
+        <f t="shared" si="33"/>
         <v>0.97625213510386244</v>
       </c>
       <c r="I41" s="16">
-        <f>I30/I29</f>
+        <f t="shared" si="33"/>
         <v>0.97201116452163128</v>
       </c>
       <c r="J41" s="16">
-        <f>J30/J29</f>
+        <f t="shared" si="33"/>
         <v>0.9659833933931351</v>
       </c>
       <c r="M41" s="16">

--- a/JPM.xlsx
+++ b/JPM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E889ADEE-5F75-FB49-A9E4-78F11DBACA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C91101-379D-7D4B-A27E-417713BFA6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="740" windowWidth="13620" windowHeight="17260" xr2:uid="{F82DA416-AA99-4B4A-8821-016F27042EC9}"/>
   </bookViews>
@@ -641,7 +641,7 @@
   <dimension ref="K2:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -665,7 +665,7 @@
         <v>2815</v>
       </c>
       <c r="M3" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="11:13">
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="11:13">
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="11:13">
@@ -738,7 +738,7 @@
       </c>
       <c r="L12" s="3">
         <f>NPV(L11,Model!Q30:FV30)+L5-L6</f>
-        <v>743316.0155947716</v>
+        <v>768549.00017783698</v>
       </c>
     </row>
     <row r="13" spans="11:13">
@@ -747,13 +747,13 @@
       </c>
       <c r="L13" s="5">
         <f>L12/L3</f>
-        <v>264.05542294663292</v>
+        <v>273.01918301166501</v>
       </c>
     </row>
     <row r="15" spans="11:13">
       <c r="L15" s="6">
         <f>L13/L2-1</f>
-        <v>8.664783105610252E-2</v>
+        <v>0.1235357325582922</v>
       </c>
     </row>
     <row r="17" spans="11:12">
@@ -799,11 +799,11 @@
   <dimension ref="A1:FV41"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="C3" sqref="C3"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="R32" sqref="R32:Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -913,8 +913,7 @@
         <v>2231</v>
       </c>
       <c r="J5" s="9">
-        <f>F5*1.05</f>
-        <v>1716.75</v>
+        <v>2421</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -929,7 +928,7 @@
       </c>
       <c r="P5" s="9">
         <f t="shared" ref="P5:P13" si="0">SUM(G5:J5)</f>
-        <v>8205.75</v>
+        <v>8910</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -962,8 +961,7 @@
         <v>5988</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" ref="J6:J25" si="2">F6</f>
-        <v>3725</v>
+        <v>5195</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -978,7 +976,7 @@
       </c>
       <c r="P6" s="9">
         <f t="shared" si="0"/>
-        <v>23317</v>
+        <v>24787</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
@@ -1011,8 +1009,7 @@
         <v>1924</v>
       </c>
       <c r="J7" s="9">
-        <f t="shared" si="2"/>
-        <v>1926</v>
+        <v>1952</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -1027,7 +1024,7 @@
       </c>
       <c r="P7" s="9">
         <f t="shared" si="0"/>
-        <v>7580</v>
+        <v>7606</v>
       </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
@@ -1060,8 +1057,7 @@
         <v>4479</v>
       </c>
       <c r="J8" s="9">
-        <f t="shared" si="2"/>
-        <v>4077</v>
+        <v>4874</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -1076,7 +1072,7 @@
       </c>
       <c r="P8" s="9">
         <f t="shared" si="0"/>
-        <v>17004</v>
+        <v>17801</v>
       </c>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
@@ -1109,8 +1105,7 @@
         <v>1936</v>
       </c>
       <c r="J9" s="9">
-        <f t="shared" si="2"/>
-        <v>1697</v>
+        <v>1865</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -1125,7 +1120,7 @@
       </c>
       <c r="P9" s="9">
         <f t="shared" si="0"/>
-        <v>7362</v>
+        <v>7530</v>
       </c>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
@@ -1158,8 +1153,7 @@
         <v>-16</v>
       </c>
       <c r="J10" s="9">
-        <f t="shared" si="2"/>
-        <v>-743</v>
+        <v>-92</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -1174,7 +1168,7 @@
       </c>
       <c r="P10" s="9">
         <f t="shared" si="0"/>
-        <v>-1672</v>
+        <v>-1021</v>
       </c>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
@@ -1207,8 +1201,7 @@
         <v>402</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" si="2"/>
-        <v>263</v>
+        <v>376</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -1223,7 +1216,7 @@
       </c>
       <c r="P11" s="9">
         <f t="shared" si="0"/>
-        <v>1288</v>
+        <v>1401</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
@@ -1256,8 +1249,7 @@
         <v>1345</v>
       </c>
       <c r="J12" s="9">
-        <f t="shared" si="2"/>
-        <v>1247</v>
+        <v>1602</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -1272,7 +1264,7 @@
       </c>
       <c r="P12" s="9">
         <f t="shared" si="0"/>
-        <v>5142</v>
+        <v>5497</v>
       </c>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
@@ -1305,8 +1297,7 @@
         <v>960</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" si="2"/>
-        <v>696</v>
+        <v>1225</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -1321,7 +1312,7 @@
       </c>
       <c r="P13" s="9">
         <f t="shared" si="0"/>
-        <v>11933</v>
+        <v>12462</v>
       </c>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
@@ -1332,11 +1323,11 @@
         <v>28</v>
       </c>
       <c r="C14" s="11">
-        <f t="shared" ref="C14:D14" si="3">SUM(C5:C13)</f>
+        <f t="shared" ref="C14:D14" si="2">SUM(C5:C13)</f>
         <v>17638</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19528</v>
       </c>
       <c r="E14" s="11">
@@ -1344,24 +1335,24 @@
         <v>17148</v>
       </c>
       <c r="F14" s="11">
-        <f t="shared" ref="F14:I14" si="4">SUM(F5:F13)</f>
+        <f t="shared" ref="F14:I14" si="3">SUM(F5:F13)</f>
         <v>14523</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18852</v>
       </c>
       <c r="H14" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27454</v>
       </c>
       <c r="I14" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19249</v>
       </c>
       <c r="J14" s="11">
         <f>SUM(J5:J13)</f>
-        <v>14604.75</v>
+        <v>19418</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
@@ -1379,7 +1370,7 @@
       </c>
       <c r="P14" s="11">
         <f>SUM(P5:P13)</f>
-        <v>80159.75</v>
+        <v>84973</v>
       </c>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
@@ -1412,8 +1403,7 @@
         <v>50416</v>
       </c>
       <c r="J15" s="9">
-        <f t="shared" si="2"/>
-        <v>47384</v>
+        <v>47566</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -1428,7 +1418,7 @@
       </c>
       <c r="P15" s="9">
         <f>SUM(G15:J15)</f>
-        <v>193751</v>
+        <v>193933</v>
       </c>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
@@ -1461,8 +1451,7 @@
         <v>27011</v>
       </c>
       <c r="J16" s="9">
-        <f t="shared" si="2"/>
-        <v>23333</v>
+        <v>24216</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -1477,7 +1466,7 @@
       </c>
       <c r="P16" s="9">
         <f>SUM(G16:J16)</f>
-        <v>100467</v>
+        <v>101350</v>
       </c>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
@@ -1492,32 +1481,32 @@
         <v>20711</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" ref="D17:J17" si="5">D15-D16</f>
+        <f t="shared" ref="D17:J17" si="4">D15-D16</f>
         <v>21779</v>
       </c>
       <c r="E17" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22726</v>
       </c>
       <c r="F17" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24051</v>
       </c>
       <c r="G17" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23082</v>
       </c>
       <c r="H17" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22746</v>
       </c>
       <c r="I17" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23405</v>
       </c>
       <c r="J17" s="11">
-        <f t="shared" si="5"/>
-        <v>24051</v>
+        <f t="shared" si="4"/>
+        <v>23350</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
@@ -1526,16 +1515,16 @@
         <v>52311</v>
       </c>
       <c r="N17" s="11">
-        <f t="shared" ref="N17:P17" si="6">N15-N16</f>
+        <f t="shared" ref="N17:P17" si="5">N15-N16</f>
         <v>66710</v>
       </c>
       <c r="O17" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>89267</v>
       </c>
       <c r="P17" s="11">
-        <f t="shared" si="6"/>
-        <v>93284</v>
+        <f t="shared" si="5"/>
+        <v>92583</v>
       </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
@@ -1546,11 +1535,11 @@
         <v>31</v>
       </c>
       <c r="C18" s="13">
-        <f t="shared" ref="C18:D18" si="7">SUM(C14:C15)-C16</f>
+        <f t="shared" ref="C18:D18" si="6">SUM(C14:C15)-C16</f>
         <v>38349</v>
       </c>
       <c r="D18" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>41307</v>
       </c>
       <c r="E18" s="13">
@@ -1558,78 +1547,78 @@
         <v>39874</v>
       </c>
       <c r="F18" s="13">
-        <f t="shared" ref="F18:J18" si="8">SUM(F14:F15)-F16</f>
+        <f t="shared" ref="F18:J18" si="7">SUM(F14:F15)-F16</f>
         <v>38574</v>
       </c>
       <c r="G18" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>41934</v>
       </c>
       <c r="H18" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>50200</v>
       </c>
       <c r="I18" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>42654</v>
       </c>
       <c r="J18" s="13">
-        <f t="shared" si="8"/>
-        <v>38655.75</v>
+        <f t="shared" si="7"/>
+        <v>42768</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13">
-        <f t="shared" ref="M18:P18" si="9">SUM(M14:M15)-M16</f>
+        <f t="shared" ref="M18:P18" si="8">SUM(M14:M15)-M16</f>
         <v>121649</v>
       </c>
       <c r="N18" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>128695</v>
       </c>
       <c r="O18" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>158104</v>
       </c>
       <c r="P18" s="13">
-        <f t="shared" si="9"/>
-        <v>173443.75</v>
+        <f t="shared" si="8"/>
+        <v>177556</v>
       </c>
       <c r="Q18" s="13">
-        <f>P18</f>
-        <v>173443.75</v>
+        <f>P18*1.01</f>
+        <v>179331.56</v>
       </c>
       <c r="R18" s="13">
         <f>Q18*(1+R34)</f>
-        <v>175178.1875</v>
+        <v>181124.8756</v>
       </c>
       <c r="S18" s="13">
-        <f t="shared" ref="S18:Y18" si="10">R18*(1+S34)</f>
-        <v>176929.96937500002</v>
+        <f t="shared" ref="S18:Y18" si="9">R18*(1+S34)</f>
+        <v>182936.12435600001</v>
       </c>
       <c r="T18" s="13">
-        <f t="shared" si="10"/>
-        <v>178699.26906875003</v>
+        <f t="shared" si="9"/>
+        <v>184765.48559956002</v>
       </c>
       <c r="U18" s="13">
-        <f t="shared" si="10"/>
-        <v>180486.26175943753</v>
+        <f t="shared" si="9"/>
+        <v>186613.14045555564</v>
       </c>
       <c r="V18" s="13">
-        <f t="shared" si="10"/>
-        <v>182291.1243770319</v>
+        <f t="shared" si="9"/>
+        <v>188479.27186011118</v>
       </c>
       <c r="W18" s="13">
-        <f t="shared" si="10"/>
-        <v>184114.03562080223</v>
+        <f t="shared" si="9"/>
+        <v>190364.06457871231</v>
       </c>
       <c r="X18" s="13">
-        <f t="shared" si="10"/>
-        <v>185955.17597701025</v>
+        <f t="shared" si="9"/>
+        <v>192267.70522449943</v>
       </c>
       <c r="Y18" s="13">
-        <f t="shared" si="10"/>
-        <v>187814.72773678036</v>
+        <f t="shared" si="9"/>
+        <v>194190.38227674444</v>
       </c>
     </row>
     <row r="19" spans="2:178">
@@ -1659,8 +1648,7 @@
         <v>3111</v>
       </c>
       <c r="J19" s="9">
-        <f t="shared" si="2"/>
-        <v>2762</v>
+        <v>2631</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -1674,8 +1662,8 @@
         <v>9320</v>
       </c>
       <c r="P19" s="9">
-        <f t="shared" ref="P19:P25" si="11">SUM(G19:J19)</f>
-        <v>10809</v>
+        <f t="shared" ref="P19:P25" si="10">SUM(G19:J19)</f>
+        <v>10678</v>
       </c>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
@@ -1708,8 +1696,7 @@
         <v>12817</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" si="2"/>
-        <v>11847</v>
+        <v>12469</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -1723,8 +1710,8 @@
         <v>46465</v>
       </c>
       <c r="P20" s="9">
-        <f t="shared" si="11"/>
-        <v>50735</v>
+        <f t="shared" si="10"/>
+        <v>51357</v>
       </c>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
@@ -1757,8 +1744,7 @@
         <v>1258</v>
       </c>
       <c r="J21" s="9">
-        <f t="shared" si="2"/>
-        <v>1208</v>
+        <v>1309</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -1772,8 +1758,8 @@
         <v>4590</v>
       </c>
       <c r="P21" s="9">
-        <f t="shared" si="11"/>
-        <v>4925</v>
+        <f t="shared" si="10"/>
+        <v>5026</v>
       </c>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
@@ -1806,8 +1792,7 @@
         <v>2447</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="2"/>
-        <v>2409</v>
+        <v>2516</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
@@ -1821,8 +1806,8 @@
         <v>9246</v>
       </c>
       <c r="P22" s="9">
-        <f t="shared" si="11"/>
-        <v>9724</v>
+        <f t="shared" si="10"/>
+        <v>9831</v>
       </c>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
@@ -1855,8 +1840,7 @@
         <v>2780</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="2"/>
-        <v>2606</v>
+        <v>3007</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -1870,8 +1854,8 @@
         <v>10235</v>
       </c>
       <c r="P23" s="9">
-        <f t="shared" si="11"/>
-        <v>10656</v>
+        <f t="shared" si="10"/>
+        <v>11057</v>
       </c>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
@@ -1904,8 +1888,7 @@
         <v>1258</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="2"/>
-        <v>1298</v>
+        <v>1335</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -1919,8 +1902,8 @@
         <v>4591</v>
       </c>
       <c r="P24" s="9">
-        <f t="shared" si="11"/>
-        <v>4937</v>
+        <f t="shared" si="10"/>
+        <v>4974</v>
       </c>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
@@ -1953,8 +1936,7 @@
         <v>2005</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="2"/>
-        <v>5118</v>
+        <v>2126</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -1968,8 +1950,8 @@
         <v>12045</v>
       </c>
       <c r="P25" s="9">
-        <f t="shared" si="11"/>
-        <v>12544</v>
+        <f t="shared" si="10"/>
+        <v>9552</v>
       </c>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
@@ -1980,11 +1962,11 @@
         <v>39</v>
       </c>
       <c r="C26" s="11">
-        <f t="shared" ref="C26:D26" si="12">SUM(C20:C25)</f>
+        <f t="shared" ref="C26:D26" si="11">SUM(C20:C25)</f>
         <v>20107</v>
       </c>
       <c r="D26" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>20822</v>
       </c>
       <c r="E26" s="11">
@@ -1992,42 +1974,42 @@
         <v>21757</v>
       </c>
       <c r="F26" s="11">
-        <f t="shared" ref="F26:J26" si="13">SUM(F20:F25)</f>
+        <f t="shared" ref="F26:J26" si="12">SUM(F20:F25)</f>
         <v>24486</v>
       </c>
       <c r="G26" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>22757</v>
       </c>
       <c r="H26" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>23713</v>
       </c>
       <c r="I26" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>22565</v>
       </c>
       <c r="J26" s="11">
-        <f t="shared" si="13"/>
-        <v>24486</v>
+        <f t="shared" si="12"/>
+        <v>22762</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11">
-        <f t="shared" ref="M26:P26" si="14">SUM(M20:M25)</f>
+        <f t="shared" ref="M26:P26" si="13">SUM(M20:M25)</f>
         <v>71343</v>
       </c>
       <c r="N26" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>76140</v>
       </c>
       <c r="O26" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>87172</v>
       </c>
       <c r="P26" s="11">
-        <f t="shared" si="14"/>
-        <v>93521</v>
+        <f t="shared" si="13"/>
+        <v>91797</v>
       </c>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
@@ -2038,11 +2020,11 @@
         <v>40</v>
       </c>
       <c r="C27" s="11">
-        <f t="shared" ref="C27:D27" si="15">C18-C19-C26</f>
+        <f t="shared" ref="C27:D27" si="14">C18-C19-C26</f>
         <v>15967</v>
       </c>
       <c r="D27" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17586</v>
       </c>
       <c r="E27" s="11">
@@ -2050,42 +2032,42 @@
         <v>16733</v>
       </c>
       <c r="F27" s="11">
-        <f t="shared" ref="F27:J27" si="16">F18-F19-F26</f>
+        <f t="shared" ref="F27:J27" si="15">F18-F19-F26</f>
         <v>11326</v>
       </c>
       <c r="G27" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>17293</v>
       </c>
       <c r="H27" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>23435</v>
       </c>
       <c r="I27" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>16978</v>
       </c>
       <c r="J27" s="11">
-        <f t="shared" si="16"/>
-        <v>11407.75</v>
+        <f t="shared" si="15"/>
+        <v>17375</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11">
-        <f t="shared" ref="M27:P27" si="17">M18-M19-M26</f>
+        <f t="shared" ref="M27:P27" si="16">M18-M19-M26</f>
         <v>59562</v>
       </c>
       <c r="N27" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>46166</v>
       </c>
       <c r="O27" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>61612</v>
       </c>
       <c r="P27" s="11">
-        <f t="shared" si="17"/>
-        <v>69113.75</v>
+        <f t="shared" si="16"/>
+        <v>75081</v>
       </c>
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
@@ -2105,7 +2087,7 @@
         <v>3582</v>
       </c>
       <c r="F28" s="9">
-        <f t="shared" ref="F28" si="18">O28-SUM(C28:E28)</f>
+        <f t="shared" ref="F28" si="17">O28-SUM(C28:E28)</f>
         <v>2019</v>
       </c>
       <c r="G28" s="9">
@@ -2118,8 +2100,7 @@
         <v>4080</v>
       </c>
       <c r="J28" s="9">
-        <f t="shared" ref="J28" si="19">F28</f>
-        <v>2019</v>
+        <v>3370</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -2134,7 +2115,7 @@
       </c>
       <c r="P28" s="9">
         <f>SUM(G28:J28)</f>
-        <v>15232</v>
+        <v>16583</v>
       </c>
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
@@ -2145,11 +2126,11 @@
         <v>42</v>
       </c>
       <c r="C29" s="11">
-        <f t="shared" ref="C29:D29" si="20">C27-C28</f>
+        <f t="shared" ref="C29:D29" si="18">C27-C28</f>
         <v>12622</v>
       </c>
       <c r="D29" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>14472</v>
       </c>
       <c r="E29" s="11">
@@ -2157,42 +2138,42 @@
         <v>13151</v>
       </c>
       <c r="F29" s="11">
-        <f t="shared" ref="F29:J29" si="21">F27-F28</f>
+        <f t="shared" ref="F29:J29" si="19">F27-F28</f>
         <v>9307</v>
       </c>
       <c r="G29" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>13446</v>
       </c>
       <c r="H29" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>18149</v>
       </c>
       <c r="I29" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>12898</v>
       </c>
       <c r="J29" s="11">
-        <f t="shared" si="21"/>
-        <v>9388.75</v>
+        <f t="shared" si="19"/>
+        <v>14005</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11">
-        <f t="shared" ref="M29:P29" si="22">M27-M28</f>
+        <f t="shared" ref="M29:P29" si="20">M27-M28</f>
         <v>48334</v>
       </c>
       <c r="N29" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>37676</v>
       </c>
       <c r="O29" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>49552</v>
       </c>
       <c r="P29" s="11">
-        <f t="shared" si="22"/>
-        <v>53881.75</v>
+        <f t="shared" si="20"/>
+        <v>58498</v>
       </c>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
@@ -2212,7 +2193,7 @@
         <v>12685</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" ref="F30" si="23">O30-SUM(C30:E30)</f>
+        <f t="shared" ref="F30" si="21">O30-SUM(C30:E30)</f>
         <v>8871</v>
       </c>
       <c r="G30" s="15">
@@ -2226,7 +2207,7 @@
       </c>
       <c r="J30" s="15">
         <f>J29*AVERAGE(F41:I41)</f>
-        <v>9069.3765847197974</v>
+        <v>13528.59742447086</v>
       </c>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
@@ -2241,655 +2222,655 @@
       </c>
       <c r="P30" s="15">
         <f>SUM(G30:J30)</f>
-        <v>52266.376584719794</v>
+        <v>56725.597424470863</v>
       </c>
       <c r="Q30" s="15">
         <f>Q18*Q36</f>
-        <v>52033.125</v>
+        <v>53799.468000000001</v>
       </c>
       <c r="R30" s="15">
-        <f t="shared" ref="R30:Y30" si="24">R18*R36</f>
-        <v>52553.456249999996</v>
+        <f t="shared" ref="R30:Y30" si="22">R18*R36</f>
+        <v>54337.462679999997</v>
       </c>
       <c r="S30" s="15">
-        <f t="shared" si="24"/>
-        <v>53078.9908125</v>
+        <f t="shared" si="22"/>
+        <v>54880.8373068</v>
       </c>
       <c r="T30" s="15">
-        <f t="shared" si="24"/>
-        <v>53609.780720625007</v>
+        <f t="shared" si="22"/>
+        <v>55429.645679868008</v>
       </c>
       <c r="U30" s="15">
-        <f t="shared" si="24"/>
-        <v>54145.878527831257</v>
+        <f t="shared" si="22"/>
+        <v>55983.942136666687</v>
       </c>
       <c r="V30" s="15">
-        <f t="shared" si="24"/>
-        <v>54687.337313109565</v>
+        <f t="shared" si="22"/>
+        <v>56543.781558033355</v>
       </c>
       <c r="W30" s="15">
-        <f t="shared" si="24"/>
-        <v>55234.210686240665</v>
+        <f t="shared" si="22"/>
+        <v>57109.219373613691</v>
       </c>
       <c r="X30" s="15">
-        <f t="shared" si="24"/>
-        <v>55786.552793103074</v>
+        <f t="shared" si="22"/>
+        <v>57680.311567349825</v>
       </c>
       <c r="Y30" s="15">
-        <f t="shared" si="24"/>
-        <v>56344.418321034107</v>
+        <f t="shared" si="22"/>
+        <v>58257.114683023327</v>
       </c>
       <c r="Z30" s="15">
         <f>Y30*(1+Main!$L$10)</f>
-        <v>56907.862504244447</v>
+        <v>58839.685829853559</v>
       </c>
       <c r="AA30" s="15">
         <f>Z30*(1+Main!$L$10)</f>
-        <v>57476.94112928689</v>
+        <v>59428.082688152092</v>
       </c>
       <c r="AB30" s="15">
         <f>AA30*(1+Main!$L$10)</f>
-        <v>58051.710540579763</v>
+        <v>60022.363515033612</v>
       </c>
       <c r="AC30" s="15">
         <f>AB30*(1+Main!$L$10)</f>
-        <v>58632.227645985564</v>
+        <v>60622.58715018395</v>
       </c>
       <c r="AD30" s="15">
         <f>AC30*(1+Main!$L$10)</f>
-        <v>59218.549922445418</v>
+        <v>61228.81302168579</v>
       </c>
       <c r="AE30" s="15">
         <f>AD30*(1+Main!$L$10)</f>
-        <v>59810.735421669873</v>
+        <v>61841.101151902651</v>
       </c>
       <c r="AF30" s="15">
         <f>AE30*(1+Main!$L$10)</f>
-        <v>60408.842775886573</v>
+        <v>62459.512163421678</v>
       </c>
       <c r="AG30" s="15">
         <f>AF30*(1+Main!$L$10)</f>
-        <v>61012.931203645436</v>
+        <v>63084.107285055892</v>
       </c>
       <c r="AH30" s="15">
         <f>AG30*(1+Main!$L$10)</f>
-        <v>61623.060515681893</v>
+        <v>63714.948357906454</v>
       </c>
       <c r="AI30" s="15">
         <f>AH30*(1+Main!$L$10)</f>
-        <v>62239.291120838716</v>
+        <v>64352.09784148552</v>
       </c>
       <c r="AJ30" s="15">
         <f>AI30*(1+Main!$L$10)</f>
-        <v>62861.684032047102</v>
+        <v>64995.618819900374</v>
       </c>
       <c r="AK30" s="15">
         <f>AJ30*(1+Main!$L$10)</f>
-        <v>63490.300872367574</v>
+        <v>65645.575008099375</v>
       </c>
       <c r="AL30" s="15">
         <f>AK30*(1+Main!$L$10)</f>
-        <v>64125.203881091249</v>
+        <v>66302.030758180365</v>
       </c>
       <c r="AM30" s="15">
         <f>AL30*(1+Main!$L$10)</f>
-        <v>64766.455919902161</v>
+        <v>66965.051065762163</v>
       </c>
       <c r="AN30" s="15">
         <f>AM30*(1+Main!$L$10)</f>
-        <v>65414.120479101184</v>
+        <v>67634.701576419786</v>
       </c>
       <c r="AO30" s="15">
         <f>AN30*(1+Main!$L$10)</f>
-        <v>66068.261683892197</v>
+        <v>68311.048592183986</v>
       </c>
       <c r="AP30" s="15">
         <f>AO30*(1+Main!$L$10)</f>
-        <v>66728.94430073112</v>
+        <v>68994.159078105833</v>
       </c>
       <c r="AQ30" s="15">
         <f>AP30*(1+Main!$L$10)</f>
-        <v>67396.233743738427</v>
+        <v>69684.100668886895</v>
       </c>
       <c r="AR30" s="15">
         <f>AQ30*(1+Main!$L$10)</f>
-        <v>68070.196081175818</v>
+        <v>70380.94167557577</v>
       </c>
       <c r="AS30" s="15">
         <f>AR30*(1+Main!$L$10)</f>
-        <v>68750.898041987573</v>
+        <v>71084.751092331528</v>
       </c>
       <c r="AT30" s="15">
         <f>AS30*(1+Main!$L$10)</f>
-        <v>69438.407022407453</v>
+        <v>71795.598603254839</v>
       </c>
       <c r="AU30" s="15">
         <f>AT30*(1+Main!$L$10)</f>
-        <v>70132.791092631523</v>
+        <v>72513.554589287392</v>
       </c>
       <c r="AV30" s="15">
         <f>AU30*(1+Main!$L$10)</f>
-        <v>70834.119003557833</v>
+        <v>73238.690135180266</v>
       </c>
       <c r="AW30" s="15">
         <f>AV30*(1+Main!$L$10)</f>
-        <v>71542.460193593419</v>
+        <v>73971.077036532064</v>
       </c>
       <c r="AX30" s="15">
         <f>AW30*(1+Main!$L$10)</f>
-        <v>72257.88479552936</v>
+        <v>74710.787806897381</v>
       </c>
       <c r="AY30" s="15">
         <f>AX30*(1+Main!$L$10)</f>
-        <v>72980.463643484662</v>
+        <v>75457.895684966352</v>
       </c>
       <c r="AZ30" s="15">
         <f>AY30*(1+Main!$L$10)</f>
-        <v>73710.268279919503</v>
+        <v>76212.474641816021</v>
       </c>
       <c r="BA30" s="15">
         <f>AZ30*(1+Main!$L$10)</f>
-        <v>74447.370962718705</v>
+        <v>76974.599388234186</v>
       </c>
       <c r="BB30" s="15">
         <f>BA30*(1+Main!$L$10)</f>
-        <v>75191.844672345891</v>
+        <v>77744.345382116531</v>
       </c>
       <c r="BC30" s="15">
         <f>BB30*(1+Main!$L$10)</f>
-        <v>75943.76311906935</v>
+        <v>78521.788835937696</v>
       </c>
       <c r="BD30" s="15">
         <f>BC30*(1+Main!$L$10)</f>
-        <v>76703.200750260046</v>
+        <v>79307.006724297069</v>
       </c>
       <c r="BE30" s="15">
         <f>BD30*(1+Main!$L$10)</f>
-        <v>77470.232757762642</v>
+        <v>80100.076791540036</v>
       </c>
       <c r="BF30" s="15">
         <f>BE30*(1+Main!$L$10)</f>
-        <v>78244.935085340272</v>
+        <v>80901.077559455443</v>
       </c>
       <c r="BG30" s="15">
         <f>BF30*(1+Main!$L$10)</f>
-        <v>79027.384436193679</v>
+        <v>81710.088335049993</v>
       </c>
       <c r="BH30" s="15">
         <f>BG30*(1+Main!$L$10)</f>
-        <v>79817.65828055561</v>
+        <v>82527.189218400497</v>
       </c>
       <c r="BI30" s="15">
         <f>BH30*(1+Main!$L$10)</f>
-        <v>80615.83486336116</v>
+        <v>83352.461110584496</v>
       </c>
       <c r="BJ30" s="15">
         <f>BI30*(1+Main!$L$10)</f>
-        <v>81421.993211994777</v>
+        <v>84185.985721690347</v>
       </c>
       <c r="BK30" s="15">
         <f>BJ30*(1+Main!$L$10)</f>
-        <v>82236.213144114721</v>
+        <v>85027.845578907247</v>
       </c>
       <c r="BL30" s="15">
         <f>BK30*(1+Main!$L$10)</f>
-        <v>83058.575275555864</v>
+        <v>85878.124034696317</v>
       </c>
       <c r="BM30" s="15">
         <f>BL30*(1+Main!$L$10)</f>
-        <v>83889.161028311428</v>
+        <v>86736.905275043275</v>
       </c>
       <c r="BN30" s="15">
         <f>BM30*(1+Main!$L$10)</f>
-        <v>84728.052638594541</v>
+        <v>87604.274327793712</v>
       </c>
       <c r="BO30" s="15">
         <f>BN30*(1+Main!$L$10)</f>
-        <v>85575.33316498049</v>
+        <v>88480.317071071651</v>
       </c>
       <c r="BP30" s="15">
         <f>BO30*(1+Main!$L$10)</f>
-        <v>86431.086496630291</v>
+        <v>89365.120241782366</v>
       </c>
       <c r="BQ30" s="15">
         <f>BP30*(1+Main!$L$10)</f>
-        <v>87295.397361596595</v>
+        <v>90258.771444200189</v>
       </c>
       <c r="BR30" s="15">
         <f>BQ30*(1+Main!$L$10)</f>
-        <v>88168.351335212559</v>
+        <v>91161.359158642197</v>
       </c>
       <c r="BS30" s="15">
         <f>BR30*(1+Main!$L$10)</f>
-        <v>89050.034848564683</v>
+        <v>92072.972750228626</v>
       </c>
       <c r="BT30" s="15">
         <f>BS30*(1+Main!$L$10)</f>
-        <v>89940.535197050325</v>
+        <v>92993.702477730913</v>
       </c>
       <c r="BU30" s="15">
         <f>BT30*(1+Main!$L$10)</f>
-        <v>90839.94054902083</v>
+        <v>93923.639502508217</v>
       </c>
       <c r="BV30" s="15">
         <f>BU30*(1+Main!$L$10)</f>
-        <v>91748.339954511044</v>
+        <v>94862.875897533304</v>
       </c>
       <c r="BW30" s="15">
         <f>BV30*(1+Main!$L$10)</f>
-        <v>92665.823354056149</v>
+        <v>95811.504656508638</v>
       </c>
       <c r="BX30" s="15">
         <f>BW30*(1+Main!$L$10)</f>
-        <v>93592.481587596718</v>
+        <v>96769.619703073724</v>
       </c>
       <c r="BY30" s="15">
         <f>BX30*(1+Main!$L$10)</f>
-        <v>94528.406403472691</v>
+        <v>97737.315900104455</v>
       </c>
       <c r="BZ30" s="15">
         <f>BY30*(1+Main!$L$10)</f>
-        <v>95473.690467507418</v>
+        <v>98714.689059105498</v>
       </c>
       <c r="CA30" s="15">
         <f>BZ30*(1+Main!$L$10)</f>
-        <v>96428.427372182487</v>
+        <v>99701.835949696557</v>
       </c>
       <c r="CB30" s="15">
         <f>CA30*(1+Main!$L$10)</f>
-        <v>97392.711645904317</v>
+        <v>100698.85430919353</v>
       </c>
       <c r="CC30" s="15">
         <f>CB30*(1+Main!$L$10)</f>
-        <v>98366.638762363364</v>
+        <v>101705.84285228547</v>
       </c>
       <c r="CD30" s="15">
         <f>CC30*(1+Main!$L$10)</f>
-        <v>99350.305149987005</v>
+        <v>102722.90128080832</v>
       </c>
       <c r="CE30" s="15">
         <f>CD30*(1+Main!$L$10)</f>
-        <v>100343.80820148687</v>
+        <v>103750.1302936164</v>
       </c>
       <c r="CF30" s="15">
         <f>CE30*(1+Main!$L$10)</f>
-        <v>101347.24628350174</v>
+        <v>104787.63159655256</v>
       </c>
       <c r="CG30" s="15">
         <f>CF30*(1+Main!$L$10)</f>
-        <v>102360.71874633676</v>
+        <v>105835.50791251808</v>
       </c>
       <c r="CH30" s="15">
         <f>CG30*(1+Main!$L$10)</f>
-        <v>103384.32593380012</v>
+        <v>106893.86299164325</v>
       </c>
       <c r="CI30" s="15">
         <f>CH30*(1+Main!$L$10)</f>
-        <v>104418.16919313812</v>
+        <v>107962.80162155969</v>
       </c>
       <c r="CJ30" s="15">
         <f>CI30*(1+Main!$L$10)</f>
-        <v>105462.35088506951</v>
+        <v>109042.42963777529</v>
       </c>
       <c r="CK30" s="15">
         <f>CJ30*(1+Main!$L$10)</f>
-        <v>106516.9743939202</v>
+        <v>110132.85393415304</v>
       </c>
       <c r="CL30" s="15">
         <f>CK30*(1+Main!$L$10)</f>
-        <v>107582.1441378594</v>
+        <v>111234.18247349457</v>
       </c>
       <c r="CM30" s="15">
         <f>CL30*(1+Main!$L$10)</f>
-        <v>108657.96557923799</v>
+        <v>112346.52429822952</v>
       </c>
       <c r="CN30" s="15">
         <f>CM30*(1+Main!$L$10)</f>
-        <v>109744.54523503037</v>
+        <v>113469.98954121181</v>
       </c>
       <c r="CO30" s="15">
         <f>CN30*(1+Main!$L$10)</f>
-        <v>110841.99068738068</v>
+        <v>114604.68943662393</v>
       </c>
       <c r="CP30" s="15">
         <f>CO30*(1+Main!$L$10)</f>
-        <v>111950.41059425448</v>
+        <v>115750.73633099017</v>
       </c>
       <c r="CQ30" s="15">
         <f>CP30*(1+Main!$L$10)</f>
-        <v>113069.91470019703</v>
+        <v>116908.24369430008</v>
       </c>
       <c r="CR30" s="15">
         <f>CQ30*(1+Main!$L$10)</f>
-        <v>114200.613847199</v>
+        <v>118077.32613124308</v>
       </c>
       <c r="CS30" s="15">
         <f>CR30*(1+Main!$L$10)</f>
-        <v>115342.61998567099</v>
+        <v>119258.09939255552</v>
       </c>
       <c r="CT30" s="15">
         <f>CS30*(1+Main!$L$10)</f>
-        <v>116496.0461855277</v>
+        <v>120450.68038648108</v>
       </c>
       <c r="CU30" s="15">
         <f>CT30*(1+Main!$L$10)</f>
-        <v>117661.00664738298</v>
+        <v>121655.1871903459</v>
       </c>
       <c r="CV30" s="15">
         <f>CU30*(1+Main!$L$10)</f>
-        <v>118837.61671385681</v>
+        <v>122871.73906224935</v>
       </c>
       <c r="CW30" s="15">
         <f>CV30*(1+Main!$L$10)</f>
-        <v>120025.99288099539</v>
+        <v>124100.45645287185</v>
       </c>
       <c r="CX30" s="15">
         <f>CW30*(1+Main!$L$10)</f>
-        <v>121226.25280980534</v>
+        <v>125341.46101740056</v>
       </c>
       <c r="CY30" s="15">
         <f>CX30*(1+Main!$L$10)</f>
-        <v>122438.5153379034</v>
+        <v>126594.87562757457</v>
       </c>
       <c r="CZ30" s="15">
         <f>CY30*(1+Main!$L$10)</f>
-        <v>123662.90049128243</v>
+        <v>127860.82438385031</v>
       </c>
       <c r="DA30" s="15">
         <f>CZ30*(1+Main!$L$10)</f>
-        <v>124899.52949619526</v>
+        <v>129139.43262768882</v>
       </c>
       <c r="DB30" s="15">
         <f>DA30*(1+Main!$L$10)</f>
-        <v>126148.52479115721</v>
+        <v>130430.8269539657</v>
       </c>
       <c r="DC30" s="15">
         <f>DB30*(1+Main!$L$10)</f>
-        <v>127410.01003906879</v>
+        <v>131735.13522350535</v>
       </c>
       <c r="DD30" s="15">
         <f>DC30*(1+Main!$L$10)</f>
-        <v>128684.11013945947</v>
+        <v>133052.48657574039</v>
       </c>
       <c r="DE30" s="15">
         <f>DD30*(1+Main!$L$10)</f>
-        <v>129970.95124085408</v>
+        <v>134383.0114414978</v>
       </c>
       <c r="DF30" s="15">
         <f>DE30*(1+Main!$L$10)</f>
-        <v>131270.66075326261</v>
+        <v>135726.84155591278</v>
       </c>
       <c r="DG30" s="15">
         <f>DF30*(1+Main!$L$10)</f>
-        <v>132583.36736079524</v>
+        <v>137084.10997147192</v>
       </c>
       <c r="DH30" s="15">
         <f>DG30*(1+Main!$L$10)</f>
-        <v>133909.2010344032</v>
+        <v>138454.95107118663</v>
       </c>
       <c r="DI30" s="15">
         <f>DH30*(1+Main!$L$10)</f>
-        <v>135248.29304474723</v>
+        <v>139839.50058189849</v>
       </c>
       <c r="DJ30" s="15">
         <f>DI30*(1+Main!$L$10)</f>
-        <v>136600.7759751947</v>
+        <v>141237.89558771747</v>
       </c>
       <c r="DK30" s="15">
         <f>DJ30*(1+Main!$L$10)</f>
-        <v>137966.78373494666</v>
+        <v>142650.27454359466</v>
       </c>
       <c r="DL30" s="15">
         <f>DK30*(1+Main!$L$10)</f>
-        <v>139346.45157229612</v>
+        <v>144076.77728903061</v>
       </c>
       <c r="DM30" s="15">
         <f>DL30*(1+Main!$L$10)</f>
-        <v>140739.91608801909</v>
+        <v>145517.54506192092</v>
       </c>
       <c r="DN30" s="15">
         <f>DM30*(1+Main!$L$10)</f>
-        <v>142147.31524889928</v>
+        <v>146972.72051254014</v>
       </c>
       <c r="DO30" s="15">
         <f>DN30*(1+Main!$L$10)</f>
-        <v>143568.78840138827</v>
+        <v>148442.44771766555</v>
       </c>
       <c r="DP30" s="15">
         <f>DO30*(1+Main!$L$10)</f>
-        <v>145004.47628540217</v>
+        <v>149926.8721948422</v>
       </c>
       <c r="DQ30" s="15">
         <f>DP30*(1+Main!$L$10)</f>
-        <v>146454.5210482562</v>
+        <v>151426.14091679064</v>
       </c>
       <c r="DR30" s="15">
         <f>DQ30*(1+Main!$L$10)</f>
-        <v>147919.06625873875</v>
+        <v>152940.40232595854</v>
       </c>
       <c r="DS30" s="15">
         <f>DR30*(1+Main!$L$10)</f>
-        <v>149398.25692132613</v>
+        <v>154469.80634921812</v>
       </c>
       <c r="DT30" s="15">
         <f>DS30*(1+Main!$L$10)</f>
-        <v>150892.23949053939</v>
+        <v>156014.50441271032</v>
       </c>
       <c r="DU30" s="15">
         <f>DT30*(1+Main!$L$10)</f>
-        <v>152401.16188544477</v>
+        <v>157574.64945683742</v>
       </c>
       <c r="DV30" s="15">
         <f>DU30*(1+Main!$L$10)</f>
-        <v>153925.17350429922</v>
+        <v>159150.39595140581</v>
       </c>
       <c r="DW30" s="15">
         <f>DV30*(1+Main!$L$10)</f>
-        <v>155464.42523934221</v>
+        <v>160741.89991091986</v>
       </c>
       <c r="DX30" s="15">
         <f>DW30*(1+Main!$L$10)</f>
-        <v>157019.06949173563</v>
+        <v>162349.31891002908</v>
       </c>
       <c r="DY30" s="15">
         <f>DX30*(1+Main!$L$10)</f>
-        <v>158589.260186653</v>
+        <v>163972.81209912937</v>
       </c>
       <c r="DZ30" s="15">
         <f>DY30*(1+Main!$L$10)</f>
-        <v>160175.15278851954</v>
+        <v>165612.54022012066</v>
       </c>
       <c r="EA30" s="15">
         <f>DZ30*(1+Main!$L$10)</f>
-        <v>161776.90431640475</v>
+        <v>167268.66562232186</v>
       </c>
       <c r="EB30" s="15">
         <f>EA30*(1+Main!$L$10)</f>
-        <v>163394.67335956878</v>
+        <v>168941.35227854509</v>
       </c>
       <c r="EC30" s="15">
         <f>EB30*(1+Main!$L$10)</f>
-        <v>165028.62009316447</v>
+        <v>170630.76580133053</v>
       </c>
       <c r="ED30" s="15">
         <f>EC30*(1+Main!$L$10)</f>
-        <v>166678.90629409612</v>
+        <v>172337.07345934384</v>
       </c>
       <c r="EE30" s="15">
         <f>ED30*(1+Main!$L$10)</f>
-        <v>168345.69535703707</v>
+        <v>174060.44419393729</v>
       </c>
       <c r="EF30" s="15">
         <f>EE30*(1+Main!$L$10)</f>
-        <v>170029.15231060743</v>
+        <v>175801.04863587668</v>
       </c>
       <c r="EG30" s="15">
         <f>EF30*(1+Main!$L$10)</f>
-        <v>171729.44383371351</v>
+        <v>177559.05912223546</v>
       </c>
       <c r="EH30" s="15">
         <f>EG30*(1+Main!$L$10)</f>
-        <v>173446.73827205066</v>
+        <v>179334.64971345782</v>
       </c>
       <c r="EI30" s="15">
         <f>EH30*(1+Main!$L$10)</f>
-        <v>175181.20565477115</v>
+        <v>181127.99621059239</v>
       </c>
       <c r="EJ30" s="15">
         <f>EI30*(1+Main!$L$10)</f>
-        <v>176933.01771131885</v>
+        <v>182939.27617269833</v>
       </c>
       <c r="EK30" s="15">
         <f>EJ30*(1+Main!$L$10)</f>
-        <v>178702.34788843204</v>
+        <v>184768.66893442531</v>
       </c>
       <c r="EL30" s="15">
         <f>EK30*(1+Main!$L$10)</f>
-        <v>180489.37136731634</v>
+        <v>186616.35562376957</v>
       </c>
       <c r="EM30" s="15">
         <f>EL30*(1+Main!$L$10)</f>
-        <v>182294.26508098951</v>
+        <v>188482.51918000728</v>
       </c>
       <c r="EN30" s="15">
         <f>EM30*(1+Main!$L$10)</f>
-        <v>184117.2077317994</v>
+        <v>190367.34437180735</v>
       </c>
       <c r="EO30" s="15">
         <f>EN30*(1+Main!$L$10)</f>
-        <v>185958.37980911738</v>
+        <v>192271.01781552544</v>
       </c>
       <c r="EP30" s="15">
         <f>EO30*(1+Main!$L$10)</f>
-        <v>187817.96360720857</v>
+        <v>194193.72799368069</v>
       </c>
       <c r="EQ30" s="15">
         <f>EP30*(1+Main!$L$10)</f>
-        <v>189696.14324328065</v>
+        <v>196135.66527361749</v>
       </c>
       <c r="ER30" s="15">
         <f>EQ30*(1+Main!$L$10)</f>
-        <v>191593.10467571346</v>
+        <v>198097.02192635366</v>
       </c>
       <c r="ES30" s="15">
         <f>ER30*(1+Main!$L$10)</f>
-        <v>193509.03572247061</v>
+        <v>200077.9921456172</v>
       </c>
       <c r="ET30" s="15">
         <f>ES30*(1+Main!$L$10)</f>
-        <v>195444.12607969533</v>
+        <v>202078.77206707338</v>
       </c>
       <c r="EU30" s="15">
         <f>ET30*(1+Main!$L$10)</f>
-        <v>197398.56734049227</v>
+        <v>204099.55978774413</v>
       </c>
       <c r="EV30" s="15">
         <f>EU30*(1+Main!$L$10)</f>
-        <v>199372.55301389721</v>
+        <v>206140.55538562158</v>
       </c>
       <c r="EW30" s="15">
         <f>EV30*(1+Main!$L$10)</f>
-        <v>201366.27854403618</v>
+        <v>208201.96093947781</v>
       </c>
       <c r="EX30" s="15">
         <f>EW30*(1+Main!$L$10)</f>
-        <v>203379.94132947654</v>
+        <v>210283.98054887258</v>
       </c>
       <c r="EY30" s="15">
         <f>EX30*(1+Main!$L$10)</f>
-        <v>205413.7407427713</v>
+        <v>212386.82035436132</v>
       </c>
       <c r="EZ30" s="15">
         <f>EY30*(1+Main!$L$10)</f>
-        <v>207467.87815019902</v>
+        <v>214510.68855790494</v>
       </c>
       <c r="FA30" s="15">
         <f>EZ30*(1+Main!$L$10)</f>
-        <v>209542.55693170099</v>
+        <v>216655.79544348401</v>
       </c>
       <c r="FB30" s="15">
         <f>FA30*(1+Main!$L$10)</f>
-        <v>211637.98250101801</v>
+        <v>218822.35339791884</v>
       </c>
       <c r="FC30" s="15">
         <f>FB30*(1+Main!$L$10)</f>
-        <v>213754.36232602817</v>
+        <v>221010.57693189802</v>
       </c>
       <c r="FD30" s="15">
         <f>FC30*(1+Main!$L$10)</f>
-        <v>215891.90594928846</v>
+        <v>223220.68270121701</v>
       </c>
       <c r="FE30" s="15">
         <f>FD30*(1+Main!$L$10)</f>
-        <v>218050.82500878134</v>
+        <v>225452.88952822919</v>
       </c>
       <c r="FF30" s="15">
         <f>FE30*(1+Main!$L$10)</f>
-        <v>220231.33325886916</v>
+        <v>227707.4184235115</v>
       </c>
       <c r="FG30" s="15">
         <f>FF30*(1+Main!$L$10)</f>
-        <v>222433.64659145786</v>
+        <v>229984.49260774662</v>
       </c>
       <c r="FH30" s="15">
         <f>FG30*(1+Main!$L$10)</f>
-        <v>224657.98305737245</v>
+        <v>232284.33753382409</v>
       </c>
       <c r="FI30" s="15">
         <f>FH30*(1+Main!$L$10)</f>
-        <v>226904.56288794617</v>
+        <v>234607.18090916233</v>
       </c>
       <c r="FJ30" s="15">
         <f>FI30*(1+Main!$L$10)</f>
-        <v>229173.60851682562</v>
+        <v>236953.25271825396</v>
       </c>
       <c r="FK30" s="15">
         <f>FJ30*(1+Main!$L$10)</f>
-        <v>231465.34460199389</v>
+        <v>239322.78524543651</v>
       </c>
       <c r="FL30" s="15">
         <f>FK30*(1+Main!$L$10)</f>
-        <v>233779.99804801383</v>
+        <v>241716.01309789089</v>
       </c>
       <c r="FM30" s="15">
         <f>FL30*(1+Main!$L$10)</f>
-        <v>236117.79802849397</v>
+        <v>244133.1732288698</v>
       </c>
       <c r="FN30" s="15">
         <f>FM30*(1+Main!$L$10)</f>
-        <v>238478.9760087789</v>
+        <v>246574.5049611585</v>
       </c>
       <c r="FO30" s="15">
         <f>FN30*(1+Main!$L$10)</f>
-        <v>240863.76576886669</v>
+        <v>249040.25001077008</v>
       </c>
       <c r="FP30" s="15">
         <f>FO30*(1+Main!$L$10)</f>
-        <v>243272.40342655536</v>
+        <v>251530.65251087779</v>
       </c>
       <c r="FQ30" s="15">
         <f>FP30*(1+Main!$L$10)</f>
-        <v>245705.12746082092</v>
+        <v>254045.95903598657</v>
       </c>
       <c r="FR30" s="15">
         <f>FQ30*(1+Main!$L$10)</f>
-        <v>248162.17873542913</v>
+        <v>256586.41862634645</v>
       </c>
       <c r="FS30" s="15">
         <f>FR30*(1+Main!$L$10)</f>
-        <v>250643.80052278342</v>
+        <v>259152.28281260992</v>
       </c>
       <c r="FT30" s="15">
         <f>FS30*(1+Main!$L$10)</f>
-        <v>253150.23852801125</v>
+        <v>261743.80564073601</v>
       </c>
       <c r="FU30" s="15">
         <f>FT30*(1+Main!$L$10)</f>
-        <v>255681.74091329137</v>
+        <v>264361.24369714339</v>
       </c>
       <c r="FV30" s="15">
         <f>FU30*(1+Main!$L$10)</f>
-        <v>258238.5583224243</v>
+        <v>267004.85613411485</v>
       </c>
     </row>
     <row r="31" spans="2:178">
@@ -2897,27 +2878,27 @@
         <v>43</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" ref="C31:H31" si="25">C30/C32</f>
+        <f t="shared" ref="C31:H31" si="23">C30/C32</f>
         <v>4.1016584250008412</v>
       </c>
       <c r="D31" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>4.752230098700946</v>
       </c>
       <c r="E31" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>4.3262508099996593</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>3.0141687336481944</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>4.4431474869541336</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>6.1204186673114789</v>
       </c>
       <c r="I31" s="8">
@@ -2926,16 +2907,16 @@
       </c>
       <c r="J31" s="8">
         <f>J30/J32</f>
-        <v>3.1645823597193892</v>
+        <v>4.8144474820180996</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="8">
-        <f t="shared" ref="M31:N31" si="26">M30/M32</f>
+        <f t="shared" ref="M31:N31" si="24">M30/M32</f>
         <v>15.364765743738849</v>
       </c>
       <c r="N31" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>12.084848484848484</v>
       </c>
       <c r="O31" s="8">
@@ -2944,11 +2925,44 @@
       </c>
       <c r="P31" s="8">
         <f>P30/P32</f>
-        <v>17.758953683095985</v>
-      </c>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
+        <v>19.274097864316833</v>
+      </c>
+      <c r="Q31" s="8">
+        <f t="shared" ref="Q31:X31" si="25">Q30/Q32</f>
+        <v>18.279864088885869</v>
+      </c>
+      <c r="R31" s="8">
+        <f t="shared" si="25"/>
+        <v>18.462662729774728</v>
+      </c>
+      <c r="S31" s="8">
+        <f t="shared" si="25"/>
+        <v>18.647289357072474</v>
+      </c>
+      <c r="T31" s="8">
+        <f t="shared" si="25"/>
+        <v>18.833762250643204</v>
+      </c>
+      <c r="U31" s="8">
+        <f t="shared" si="25"/>
+        <v>19.022099873149635</v>
+      </c>
+      <c r="V31" s="8">
+        <f t="shared" si="25"/>
+        <v>19.212320871881133</v>
+      </c>
+      <c r="W31" s="8">
+        <f t="shared" si="25"/>
+        <v>19.404444080599944</v>
+      </c>
+      <c r="X31" s="8">
+        <f t="shared" si="25"/>
+        <v>19.59848852140594</v>
+      </c>
+      <c r="Y31" s="8">
+        <f>Y30/Y32</f>
+        <v>19.794473406620003</v>
+      </c>
     </row>
     <row r="32" spans="2:178">
       <c r="B32" t="s">
@@ -2977,8 +2991,7 @@
         <v>2865.9</v>
       </c>
       <c r="J32" s="9">
-        <f>I32</f>
-        <v>2865.9</v>
+        <v>2810</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -2995,9 +3008,42 @@
         <f>O32</f>
         <v>2943.1</v>
       </c>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
+      <c r="Q32" s="9">
+        <f>P32</f>
+        <v>2943.1</v>
+      </c>
+      <c r="R32" s="9">
+        <f>Q32</f>
+        <v>2943.1</v>
+      </c>
+      <c r="S32" s="9">
+        <f t="shared" ref="S32:Y32" si="26">R32</f>
+        <v>2943.1</v>
+      </c>
+      <c r="T32" s="9">
+        <f t="shared" si="26"/>
+        <v>2943.1</v>
+      </c>
+      <c r="U32" s="9">
+        <f t="shared" si="26"/>
+        <v>2943.1</v>
+      </c>
+      <c r="V32" s="9">
+        <f t="shared" si="26"/>
+        <v>2943.1</v>
+      </c>
+      <c r="W32" s="9">
+        <f t="shared" si="26"/>
+        <v>2943.1</v>
+      </c>
+      <c r="X32" s="9">
+        <f t="shared" si="26"/>
+        <v>2943.1</v>
+      </c>
+      <c r="Y32" s="9">
+        <f t="shared" si="26"/>
+        <v>2943.1</v>
+      </c>
     </row>
     <row r="33" spans="2:25">
       <c r="C33" s="9"/>
@@ -3026,7 +3072,7 @@
       </c>
       <c r="J34" s="16">
         <f t="shared" si="27"/>
-        <v>2.1193031575672538E-3</v>
+        <v>0.10872608492767144</v>
       </c>
       <c r="N34" s="16">
         <f>N18/M18-1</f>
@@ -3038,11 +3084,11 @@
       </c>
       <c r="P34" s="16">
         <f t="shared" si="28"/>
-        <v>9.7023161969336691E-2</v>
+        <v>0.12303294034306522</v>
       </c>
       <c r="Q34" s="16">
         <f>Q18/P18-1</f>
-        <v>0</v>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="R34" s="17">
         <v>0.01</v>
@@ -3103,7 +3149,7 @@
       </c>
       <c r="J36" s="16">
         <f t="shared" si="29"/>
-        <v>0.23461908214741137</v>
+        <v>0.31632522971546156</v>
       </c>
       <c r="K36" s="16" t="e">
         <f t="shared" si="29"/>
@@ -3127,7 +3173,7 @@
       </c>
       <c r="P36" s="16">
         <f t="shared" si="29"/>
-        <v>0.3013448255398064</v>
+        <v>0.31948003685862975</v>
       </c>
       <c r="Q36" s="17">
         <v>0.3</v>
@@ -3199,7 +3245,7 @@
       </c>
       <c r="J37" s="16">
         <f t="shared" si="31"/>
-        <v>0.62218428047573782</v>
+        <v>0.54596894874672652</v>
       </c>
       <c r="M37" s="16">
         <f t="shared" ref="M37:P37" si="32">M17/M18</f>
@@ -3215,7 +3261,7 @@
       </c>
       <c r="P37" s="16">
         <f t="shared" si="32"/>
-        <v>0.53783431227703504</v>
+        <v>0.52142985874878911</v>
       </c>
     </row>
     <row r="41" spans="2:25">
@@ -3249,7 +3295,7 @@
       </c>
       <c r="J41" s="16">
         <f t="shared" si="33"/>
-        <v>0.9659833933931351</v>
+        <v>0.96598339339313533</v>
       </c>
       <c r="M41" s="16">
         <f>M30/M29</f>
@@ -3265,7 +3311,7 @@
       </c>
       <c r="P41" s="16">
         <f>P30/P29</f>
-        <v>0.97002002690558109</v>
+        <v>0.96970148422973201</v>
       </c>
     </row>
   </sheetData>
